--- a/xlsx/希臘_intext.xlsx
+++ b/xlsx/希臘_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_希臘</t>
+    <t>体育运动_体育运动_宦官_希臘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%9B%BD%E6%97%97</t>
